--- a/biology/Botanique/Pin_à_pignons/Pin_à_pignons.xlsx
+++ b/biology/Botanique/Pin_à_pignons/Pin_à_pignons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pin_%C3%A0_pignons</t>
+          <t>Pin_à_pignons</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cembroides
-Les  pins à pignons sont une sous-section qui regroupe plusieurs espèces de pins qui poussent principalement au sud-ouest des États-Unis et au Mexique. Ils appartiennent tous à la famille des Pinacées et au genre Pinus, et selon les classifications : soit au sous-genre Ducampopinus, section Parryana, sous-section Cembroides[2], soit au sous-genre Strobus, section Parrya, sous-section Cembroides[3].
+Les  pins à pignons sont une sous-section qui regroupe plusieurs espèces de pins qui poussent principalement au sud-ouest des États-Unis et au Mexique. Ils appartiennent tous à la famille des Pinacées et au genre Pinus, et selon les classifications : soit au sous-genre Ducampopinus, section Parryana, sous-section Cembroides, soit au sous-genre Strobus, section Parrya, sous-section Cembroides.
 Les cônes de ces pins contiennent des pignons qui étaient très importants dans l'alimentation des Amérindiens de la région. L'odeur du bois lorsqu'il est brûlé est tout à fait spécifique.
 Il existe huit espèces, sous-espèces ou variétés de pins à pignons (Pinus Cembroides) :
 Pinus cembroides –
